--- a/500all/speech_level/speeches_CHRG-114hhrg22604.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400626</t>
   </si>
   <si>
-    <t>Tom Price</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Price. The hearing will come to order.    We want to welcome everybody to the Budget Committee and our hearing this morning on growing risks to the budget and the economy. We have got a lot of folks here.    And I especially want to welcome a delegation from the country of Sri Lanka. We welcome you to our budget hearing today. Thanks for joining us. Maybe you can teach us a few things about getting a budget on track.    This morning's hearing is entitled ``Growing Risks to the Budget and the Economy.'' Regardless of one's political posture, there are clearly some warning signs before us. In many ways, the current budget and the current economy are, in fact, risks that are intimately related to each other. The Congressional Budget Office itself provides all of us with some sobering information, demonstrating that policymakers have ample evidence and information revealing just how severe the risks are and how much riskier they will become in the not-too-distant future.    Today, the Nation's total debt tops $19 trillion. At the end of the 10-year budget window, over the next decade, CBO projects we will borrow another $8.6 trillion, accumulating a total level of publicly held debt equivalent to more than 85 percent of our economy. That is twice the average level of the past century. It is the highest our Nation has had since the end of World War II.    And, of course, unlike the 1940s, today's debt is not being driven by a massive temporary mobilization of military might. In 2016, our debt trajectory is being driven by a chronic imbalance in our Nation's budget for which there is no end in sight under current policy or current law.    In fact, today's growing debt is not so much the result of defeating a threat to America's national security--it is, indeed, the threat itself. The fiscal imbalance that we face, the uncertainty that is sown into our economy by a looming fiscal crisis, all of this weakens our Nation.    And, yet, despite all of this, there are many who are saying that just because interest rates are so low, that we just ought to keep borrowing more and more money--run up the credit card while credit is relatively cheap. This is, as most folks understand and appreciate, horribly shortsighted thinking.    Publicly held debt is over $14 trillion, more than three-quarters the size of our economy. We are already past what economists say is a sustainable debt burden, let alone advisable or fair to leave our kids and our grandkids.    The fastest-growing component in our budget is not national security spending; it is not health care; it is not research and development; it is not infrastructure to repair roads or bridges; it is not aid to the Nation's poor; it is interest on our Nation's debt. Unless something is done to change course, in 2026 America will pay $712 billion a year in interest payments alone, just shy of what we are projected to spend on our entire national defense.    And interest payments, interest dollars, are dollars that can't be used to pay the rent or to send a kid to school or to buy a car or to buy a house or to start or to expand a business. All the things that the American people say they want to do with their money will be harmed by the enormous interest payments.    Annual deficits are projected to exceed $1 trillion in that same time period. These deficits will come at a time when Washington will be taking in higher-than-average tax revenue. This means that we will be taking in more tax money and going further in the hole, further into debt. Clearly, the government is not being starved of revenue.    That being said, a stronger economy that creates higher revenues is truly the key to addressing our fiscal crisis. If our economy were growing today at just the historical average, roughly 3 percent annually, instead of 2 percent that is projected over the next decade, we would be in a much better fiscal position than we are right now.    According to the Congressional Budget Office, if economic growth were just 0.1 percentage points higher per year than currently projected, annual deficits over the next 10 years would be reduced by $327 billion. Just through better economic output, we could reduce future deficits by as much as $3.3 trillion over the next decade if we were growing at our historical average.    In short, economic growth is a vital ingredient to any coherent strategy to get the Nation's fiscal house in order. Poor economic policies contribute to the poor fiscal health of the Nation, and today we are experiencing the worst economic recovery of the modern era.    The macro effects of slow economic growth, however, are only one side of the story. The uncertainty that the country as a whole has experienced, due in part to lackluster economic growth, is also experienced by millions of individual Americans--families, entrepreneurs--in their own lives and in their own ways. Many Americans are struggling to make ends meet at a time when opportunities are fewer and the cost of basic necessities like health care and education are rising.    And while the headline unemployment rate has dropped to under 5 percent, the underemployment rate, that which takes into account those who are working part-time because they can't find full-time work and those who have just given up looking for work, is currently 9.7 percent. That is higher than where it was prior to the recession.    Meanwhile, the rate of participation in America's labor market, the percent of the population who are able to work who are working, is at levels not seen since the late 1970s, and the rate of worker productivity has declined for the last three quarters.    At a time when over 60 percent of the country believes the Nation is on the wrong track, it is time we adopted a pro-growth policy agenda. And when that is coupled with sound budgetary strategy, it will jump-start America's economic engine and put us on a sustainable fiscal trajectory.    House Republicans, led in part by this committee's efforts on fiscal and economic matters, have been championing bold solutions to achieve those goals.    And to further this discussion, we are joined today by Dr. John Cochrane, a senior fellow at the Hoover Institution; Dr. Jared Bernstein, who is a senior fellow at the Center on Budget and Policy Priorities; and Dr. Doug Holtz-Eakin, who is president of the American Action Forum.    I want to thank each and every one of you for taking part in today's hearing.    And I am pleased now to yield to the current temporary ranking member of the day, Mr. Ryan from Ohio.</t>
   </si>
   <si>
     <t>400352</t>
   </si>
   <si>
-    <t>Tim Ryan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ryan. Thank you, Mr. Chairman. I would like to thank our witnesses for being here. Please excuse my voice. I got a little cold from my 2-year-old son after his first week at school. Germ factory. We need a hearing on that, I think, Mr. Chairman.    There are few tasks more fundamental to the function of this Committee than to discuss the budget and economic outlook, and I think this is really one of the few committees that is still having very, very serious discussions about the future of the country. In this charged political climate, it is hard to get a rational discussion in many quarters these days. So I hope today's panel will shed some light for us on approaches Congress should consider to improve the lives of Americans going forward.    We have all known for some time that we are facing a daunting fiscal future. Baby boomers are reaching retirement age, and our retirees, current retirees, are living longer. So this demographic shift drives the increases in the cost of health care, retirement programs, and budget deficits projected by CBO over the next 10 years and beyond.    Similarly, CBO's projected slowdown in economic growth is driven by slower-than-past growth in the labor force and productivity. Again, we have seen these trends coming for decades.    These are major concerns that deserve our attention. We must get the economy moving so our hard-working Americans can enjoy a rising standard of living. And we must adjust our fiscal policies to lessen future budget deficits, which are unsustainable without responsible action. So I am glad we are all in agreement here, as Democrats and Republicans, that this is a major issue that we need to address.    Now, Congress has the fiscal policy tools, I believe, that we need to act. And we did it at the start of the recession. President Obama inherited the weakest economy since the Great Depression, and, together, we acted swiftly to turn things around.    Within 6 months, the economy began to grow again. We are now in the fourth-longest economic expansion in American history. We have added 15 million private sector jobs and cut the unemployment rate in half. Economists have estimated that without the aggressive policy response implemented by the President and Congress and the Federal Reserve, the recession would have lasted more than 3 years, cost twice as many jobs, and pushed the unemployment rate to 16 percent rather than the 10 percent we actually saw.    Had we not employed the fiscal policy tools in our toolkit, we would have a weaker economy and larger deficits today.    So if we look at the economic situation in Europe, which our panelists know all too much about, Europe responded to the economic crisis with austerity, and this approach undermined their recovery, the deep cuts. And, unfortunately, Congress has also undermined our economy over the past 6 years by blocking additional proposals by President Obama and insisting on spending cuts, the kind of austerity measures that have failed elsewhere. President Obama's jobs bill still languishes here in Congress.    Democrats have a different approach. We want to enact forward-looking policies that will strengthen the main drivers of our strong economy. We want sustained investment. And while we have to make tough choices to deal with the deficit and the debt, we must remain committed to responsibly funding our national priorities, because these priorities lead to the growth that the chairman was talking about.    We must promote long-term job growth by modernizing transportation networks--that takes investment; repairing aging infrastructure--that takes investment; investing in workforce education--that takes investment; and supporting the research and development of advanced manufacturing technologies which will lead to the next generation of good-paying jobs in America.    This will create the millions of jobs, this will grow our economy, facilitate American exports, create a level playing field for American workers, and increase the return on taxpayer investment.    By contrast, our Republican colleagues continue to push an agenda that returns to the same failed policies that created and prolonged the recession: deregulation, new tax breaks for the wealthy, and austere spending cuts. And under President Bush, we actually lost private sector jobs. Under President George W. Bush, who fully implemented the supply-side economic theory, we lost private sector jobs.    These tactics do little to expand the workforce or improve productivity. I think we can all agree that a stronger economy is the single most important factor that would improve the budget and fiscal outlook, even if we differ on the best approach to stimulate growth across the economy.    Democrats are eager to discuss this, Mr. Chairman, and any additional efforts to reduce future deficits, but we need a willing partner, not a party that seeks to disinvest in America's future and threaten our vital society and our social safety net without regard to the damaging impact of austerity on our economy and its recovery.</t>
   </si>
   <si>
@@ -76,27 +70,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cochrane</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cochrane. Chairman Price and Mr. Ryan and members of the Committee, it is a real honor to talk to you today.    Yes, sclerotic growth is our country's most fundamental economic problem. If we could get back to the 3.5 percent postwar average, we would, in the next 30 years, triple rather than just double the size of the economy, and also tax revenues, which would do wonders for our debt problems.    So why has growth halved? The most plausible answer is, I think, simple and sensible: Our legal and regulatory system is slowly strangling the golden goose of growth.    How do we fix it? Harder. Our national economic debate just makes the same points louder, over and over again, and is going nowhere. So let's look together to find novel and effective policies that can appeal to both sides of the argument.    Let's get past too much regulation or too little regulation and fix regulation instead. Regulation is too discretionary. People can't read the rules and know what to do. Regulatory decisions take forever. Regulation has lost its rule of law protections. Agencies are cop, prosecutor, judge, jury, and executioner all in one. And most of all, regulation is becoming more politicized.    Congress can fix this. Let's get past spending more or spending less on social programs and fix the programs instead.    Often, if people earn an extra dollar, they lose more than a dollar of benefits. No wonder people get stuck. If we fix these disincentives, we will help people better, we will encourage growth and economy, and, in the end, we will spend less.    Now, spending is a serious problem, but just moving spending off the books doesn't help. For example, we allow a mortgage interest tax deduction, but that is exactly the same thing as collecting taxes and then sending checks to homeowners, but larger checks for high-income people, larger checks for people who borrow a lot, and larger checks for people who refinance often. You would never do that.    Suppose we eliminate the mortgage deduction and put housing subsidies on budget instead. The resulting homeowner subsidy would surely be a lot smaller, help lower-income people a lot more, and would be better targeted at getting people in houses. You would both be happy. The budget would look bigger, but in reality, we would be spending less and growing more.    Taxes. Tax reform fails because arguments over the level of taxes, subsidies, or redistribution torpedo sensible simplifications we all know we should do. We could achieve tax reform, then, by separating the four confounding issues.    First, determine the structure of taxes, just to raise revenue with minimal economic damage, but leave the rates blank, then separately negotiate the rates, put all the tax incentives and deductions in a separate subsidy code, and preferably as visible on-budget expenditures, and then separately add an income redistribution code.    If you did these four things separately, the necessary big fights over each one need not derail progress on the others.    I should say, a massive simplification of the Tax Code is, I think, more important than the rates and easier for us all to agree on.    Debt and deficits. Each year, the CBO correctly declares our long-term debt unsustainable and not much happens. Yelling louder won't work.    So let's, first, face the biggest problem, a debt crisis, when the U.S. really needs to borrow trillions of dollars and suddenly can't; a debt crisis, not a predictable rise in interest rates or something we can see coming. Crises are always sudden and unexpected, like earthquakes and wars. Even Greece could borrow at remarkably low interest rates--until, one day, all of a sudden it couldn't.    The answers are straightforward. Sensible reforms to Social Security and Medicare are on the table. Address underfunded pensions, huge credit and bailout guarantees, and other things that might force the U.S. to need a lot of money suddenly.    Buy some insurance. Every homeowner shopping for a mortgage chooses between a floating rate, lower initially, and a fixed rate, higher initially, but forever stopping the chance of interest rates going up and blowing their budget.    The same for the U.S. Fixed rates, borrowing longer, would forever insulate the budget from interest rate risks, and those are the essential ingredients of a debt crisis.    Above all, undertake simple pro-growth economic policies and grow out of the debt.    You may object that fundamental reform of this sort is not politically feasible. Well, what is politically feasible changes fast these days. Winston Churchill once said, Americans can be trusted to do the right thing after we have tried everything else. Well, we have tried everything else, so let's do the right thing.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Price. Thank you, Dr. Cochrane.    Dr. Bernstein, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bernstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bernstein. Thanks very much, Chairman Price, and thank you, Mr. Ryan, for the invitation to speak to you today.    My testimony makes three simple points. First, as recent labor market, income, poverty, and health coverage data reveal, the American economy actually has significant strengths. The U.S. economy is in the seventh year of a recovery that began in the second half of 2009, meaning that we are in the midst of a relatively long expansion. Businesses began adding jobs on net in late 2010, and since then, private sector employment is up 15 million jobs, the longest streak of total job growth on record.    The tightening job market has meant faster wage growth, and not just for high-wage workers, but for middle- and low-wage workers as well. As my first figure shows, the real wage of blue collar workers in manufacturing and for non-managers and services is up 5 percent since its trough in late 2012.    My second figure uses data from the New York Federal Reserve to show another favorable shift in the recent job market: Middle-skill job growth is now outpacing that of job growth in low- and high-wage occupations.    Now, these labor market trends helped to generate remarkably positive real income gains last year as reported just yesterday by the Census Bureau. My figure 3 shows these real gains were largest at the low end of the income scale, a characteristic pattern of tightening labor markets as they disproportionately lift the incomes of the least advantaged.    I should note that contrary to some of the very negative comments that have been made so far today, the 5.2 percent increase you see in this figure is the fastest 1-year growth in real median household income on record in the Census Bureau series, which dates from the mid-1970s.    Poverty also fell significantly last year, though the poverty rate, at 13.5 percent, is still above its 2007 level.    Figure 4 shows the dramatic decline in the share of Americans without health coverage that began with the implementation of the Affordable Care Act. These very positive developments for middle- and low-income households derive from the one-two punch of tighter labor markets and progressive healthcare policy.    My second point, however, is that trend productivity growth is too slow, and that suggests the need for an investment agenda. Though the U.S. economy is growing faster than most other advanced economies, real GDP growth has been slower in this recovery than in prior ones. An important reason for this outcome is that productivity growth has also slowed. And one reason that productivity growth has slowed is due to less capital deepening, as in not enough investment in capital per hour worked.    Now, recent Congresses, including the current one, have been extremely reluctant to plan and execute public investment in needed areas, including basic research, water quality, human capital, including preschool, and transportation infrastructure.    This is a bipartisan complaint, one I hear regularly from the business community that depends on productivity-enhancing infrastructure.    My final point is that while we face serious fiscal constraints, lower interest rates and slower-growing healthcare costs, even as many more people have health coverage, are providing desperately needed fiscal oxygen. Together, these two factors explain five-sixth of the improvement in the long-term forecast of the debt ratio.    My last figure underscores the health savings point. It shows a 4 percentage point decline in projections for public health spending as a share of GDP between the 2010 projections and the most recent ones, savings that are partly attributable to healthcare delivery efficiencies promoted by the Affordable Care Act.    Given the investment agenda I recommend, I want to express my concern regarding sequestration cuts to nondefense discretionary programs, including education, job training, infrastructure, scientific and medical research, veterans health care, and more. Such funding is projected to fall to historical lows as a share of the economy in coming years.    Similarly, the budget of the House majority features particularly severe cuts in programs to help poor families and others of limited means. Sixty-two percent of its spending cuts come from programs that serve low- and moderate-income families, including Medicaid, nutritional support, and Pell Grants.    Such budgeting would not only lead tens of millions of people to lose health coverage and basic food support, but it would also undermine the positive public investment agenda we very much need.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Price. Thank you, Dr. Bernstein.    Dr. Holtz-Eakin, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Holtz-Eakin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Holtz-Eakin. Thank you Chairman Price, Ranking Member Ryan, and members. It is a privilege to be here today. My written statement makes three points at length. I will make them quickly and then look forward to your questions.    Point number one is that the U.S. can and must do better on both the Federal fiscal outlook and the economic growth outlook, and they are intimately related.    Point number two is that one part of doing better is to change the kind of policy mix away from temporary targeting measures associated with stimulus to long-term structural changes to help the economy grow at a faster trend rate growth.    And then number three is a list of key structural reforms that I think are important for the Congress to consider.    Let me talk about each in turn.    On the growth and budget challenges, there are many ways to characterize this. You have heard some already. I think on the growth front, the key fact is that from the end of World War II to 2007, the U.S. economy grew fast enough on average, about 3.2 percent, that even with population growth, total GDP per person, a rough measure of the standard of living, would double on average every 35 years.    And so in one person's working career, you can imagine the standard of living doubling, and that would be the route to whatever your version of the American dream might be--sending a child to school, to college for the first time, or a vacation home, whatever.    At current projected rates of growth, 2 percent, combined with projections of population growth, that measure of the standard of living would double roughly every 70 to 75 years. And so the pace at which we achieve the American dream has cut down dramatically and is disappearing over the horizon. I think this is the preeminent policy challenge of our time.    It is closely related, of course, to the budget challenge, because, as the chairman pointed out, every tenth of a percentage point of faster growth translates into about $300 billion in budgetary improvement over the 10-year budget window.    And we have a dire fiscal outlook, one in which, the CBO correctly points out again and again, the debt levels are rising at unsustainable rates, one where, over the next 10 years, we are going to have the deficit rise to be $1.2 trillion in 2026, where interest will be $700 billion, over half of that deficit, where the debt-to-GDP ratio is going to continue to climb and be 80 percent.    All of these things are quite troubling and something that the Congress should take on. And in doing so, they will have to do some structural reforms, and those reforms will have to start with the entitlement programs.    There are really three reasons to worry about the entitlement programs. The first is genuinely the budget outlook. These are programs that are growing at, say, Social Security 6 percent, or Medicare a little under 6 percent, 5.9 percent, when the nominal economy is going to grow at something like 4 percent. So they are growing faster than resources can permit to support them. But that is the green eye shades argument, and it will, I promise you, having made it my entire career, resonate not one bit with anyone.    So the second reason to fix them is that these programs on their merits are not good programs. Our Social Security program is kept solvent on the books, and the trustees are permitted to issue reports, because we have promised to cut benefits 25 percent across the board when the trust fund exhausts in a little under two decades. That is a horrific way to run a pension program.    And so if you go through Social Security, Medicare, Medicaid, the Affordable Care Act, the large drivers of the spending increase that is our deficit problem, those programs all could be improved, they are not delivering at sensible costs the services that we have promised.    And the third reason is that the explosion in entitlement spending and the associated rise in debt invites economic problems.    If you are an investor looking at the United States and you see a fundamental mismatch between spending growth and revenues, you know one of three things is going to happen.    One, the U.S. could do nothing, there will be a predictable fiscal crisis, and that is not a pro-growth policy.    Number two, you could try, as that crisis approaches, to close that gap quickly by raising a trillion dollars in taxes each year, and that is hardly a pro-growth policy.    Or three, you can take on the spending challenge that is the entitlement programs, and that would be a way to, in a pro-growth fashion, address the fiscal challenge and invite investment and expansion in the United States.    So this is something that is central to our success. It is also the way to free up the resources for national security, basic research, infrastructure, education, all of the things the Founders saw as the basic role of the Government of the United States. Those are being squeezed out of the budget as we speak.    So I think that is where it starts, and it goes through a list of tax reforms, regulatory reforms, education reforms, trade agreements, immigration reforms, all of which could allow the economy to perform much better and which should be on the agenda for the Congress.    So I look forward to your questions. I would be happy to elaborate on any of those.</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the gentlemen for their testimony. Good morning.    Dr. Holtz-Eakin, starting with you. Picking up where you left off, it seems like you have the right recipe there. Let's reform these programs. Let's get spending under control. Let's drive the debt down. Let's continue pro-growth policies of getting regulations under control, as Dr. Cochrane mentioned, and reforming our Tax Code, et cetera, et cetera.    Mr. Ryan, my good friend, the ranking member today, complained, though, that Europe committed the crime of austerity. How is what you are saying different from austerity?</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>400309</t>
   </si>
   <si>
-    <t>Bill Pascrell, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pascrell. Thank you, Mr. Chairman.    Mr. Chairman, you have really assembled three great testimonies today. We have three great economists. I trust each one of them. I may not agree with them, but that is immaterial. I say that with a full heart.    So Mr. Bernstein referred to the U.S. Census report yesterday. I think that is important, significant stuff, because, Mr. Chairman, if we are ever going to come to a resolution of any of these problems, we have to look at the pluses and minuses. Sometimes I listen to you folks on the other side of the aisle, and then we are ready to throw in the towel. And I know you are not a throw-in-the-towel guy. But in order for us to get resolution, we have to come to an agreement, we have to come to a resolution. Would you agree? Very good.    So I reject the doom and gloom. There is no denying America is getting stronger economically. The budget projections reflect that as we see more revenue from individual taxes, as working Americans make more money.    But what you don't see going up are revenues from anywhere else. They are flat and they are declining. Corporate income tax revenues in 1952 accounted for 33 percent of all revenue. In 1986, it was down to 23 percent, Mr. Chairman. Today, it is 11 percent.    Now, that is a, to me--I will stand corrected--a huge shift on where we get our revenue in order to run the government. Despite U.S.-based corporations seeing record profits, they are contributing very little to the Federal revenue, when you look at those numbers. I didn't make them up.    Tax reform in 1986 also made it more appealing for our businesses to structure themselves as pass-through companies. You have written, you have talked about this, I know, a few of you on the panel. You pay lower than individual tax rates.    [Chart]</t>
   </si>
   <si>
@@ -178,9 +157,6 @@
     <t>412462</t>
   </si>
   <si>
-    <t>James B. Renacci</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Renacci. Thank you, Mr. Chairman, and thank you for holding this important hearing to remind us of the consequences of an unsustainable fiscal path.    As the father of three, I believe that we are responsible to leave our children and grandchildren with a country that is financially stronger than the country we inherited. Unfortunately, though, Washington too often chooses to kick the can down the road and not address the challenges we face.    Absent serious reforms, these challenges aren't going away. However, I am very concerned that many here in Congress still don't understand the seriousness of this problem.    Dr. Cochrane, your testimony discussed the dangers of this mindset. You said: ``Debt crises, like all other crises that really threaten an economy and society, do not come with decades of warning. Do not expect slowly rising interest rates to canary the coal mine. Even Greece could borrow at remarkably low rates. Until, one day, it couldn't, with catastrophic results.    ``The fear for the U.S. is similar. We will have long years of low rates. Until, some day, it is discovered that some books are cooked and somebody owes a lot of money that they can't pay back, and people start to question debts everywhere.''    Mr. Cochrane, you also stated: ``Debt crises are like earthquakes. It is always quiet. People laugh at you for worrying. Buying insurance seems a waste of money. Until it isn't.''    I agree that we need to tackle problems now before the debt earthquake hits. But before tackling the problem, Members of Congress must really start fully understanding it.    That is one of the reasons why I introduced a piece of legislation, a Bipartisan Working Group, entitled the Fiscal State of the Nation, to provide Members of Congress and the American people an annual update on the long-term financial health of the country. Our Nation's finances are one of the most important pieces of information that lawmakers should consider when setting policy agendas for each Congress, but too often I believe that many here in Washington are willfully blind to the subject.    I was a businessman for 28 years. I can tell you that every year, along with every month, I looked at balance sheets and income statements to determine what policies we were going to move forward with, and those became one of the most important reasons that we made decisions we make. We don't do enough of that.    The Fiscal State of the Nation resolution is simple. It just requires the Comptroller General of the United States to present the financial report of the United States to a joint session of Congress on an annual basis. It allows lawmakers and the American public to receive the information in an accurate and timely manner within 45 days of when our country's audited financial statements are issued. Many members on the panel are already cosponsors.    Dr. Cochrane, you note in your testimony that every year the Congressional Budget Office declares our long-term promises are unsustainable. I hear it all the time as well. Yet, Congress continues to just kick the can down the road.    Do you agree that a Fiscal State of the Nation would better help all Members of Congress to understand the pressing financial issues facing our country?</t>
   </si>
   <si>
@@ -265,9 +241,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    And thank you, gentlemen, for joining us today.    I share the concerns that have been expressed by other of my colleagues. You know, I can remember as far back as 2010 or 2011 when then Chairman of the Joint Chiefs of Staff Admiral Mullen said that the greatest threat to our national security is our national debt. In spite of that, it continues to go in a vertical direction at an alarming rate.    Publicly held debt is projected to rise from an already elevated 76 percent this year to more than 85 percent by 2026, twice the average level of the past 50 years, which was 39 percent. CBO's long-term projections show that level will jump to 141 percent in 2046 under current law, and that would be the highest debt burden in our Nation's history.    So, Dr. Cochrane and Dr. Holtz-Eakin, is this fiscal path sustainable?</t>
   </si>
   <si>
@@ -328,9 +301,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. I will give you a general question. And we actually had a panel on a similar topic on Joint Economic recently.    Part of our problem is that income growth is not as rapid as it should be. And I would like you guys to comment on the degree to which that is caused by us currently discouraging work. I got home a couple weekends ago, ran into a CPA, telling me about all the people who were intentionally working less to get their ObamaCare subsidy. And, clearly, the ObamaCare subsidy was designed to encourage people not to work very hard.    The same is true about the wide variety of what you call welfare programs, earned income credit, clearly designed to discourage people from working hard, food share, low income, everything.    I would like you guys to comment on that and the degree to which the slow growth of our economy and, as a result, lower growth in revenues than anticipated, is caused by this seeming policy of the Federal Government today to discourage work.</t>
   </si>
   <si>
@@ -367,9 +337,6 @@
     <t>412416</t>
   </si>
   <si>
-    <t>Rob Woodall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Woodall. Thank you, Mr. Chairman, and thank you for calling the hearing. I knew it was going to be a good one when Mr. Pascrell rejected doom and gloom right from the outset.    I have not been disappointed. There has been a lot of head nodding going on up there. And candidly, I was feeling a little bad about us as an institution, because I thought, golly, if these guys can all get along on these topics, why can't we? And then you all start arguing about data points in the census report. And I think that is right, that we spend so much time around here arguing about data points too.    But the truth is folks didn't disagree with Dr. Holtz-Eakin's point on transportation. Yes, we don't need to improve his commute through the suburbs, we need to improve the 2 of the top 10 most congested freight byways in the country, which run through metro Atlanta, and that is going to have a real productivity increase. And we agree, let's do double National Institutes of Health.    For Pete's sake, you call yourself the grumpy economist, Dr. Cochrane, but every time the agreement comes up, I see a big smile come across the face, that there is opportunity there. Newt Gingrich and Bill Clinton did it. We can do it too.    Tell me this, Dr. Cochrane. When I was with the Bureau of Public Debt, they said, we are going to push out maturity as far as we can. I know we are at record highs now north of 70 months. But they say, we can't push it out too far, because liquidity is going to become a problem if we do. Do you have any concerns about us pushing it out too far too fast?</t>
   </si>
   <si>
@@ -409,9 +376,6 @@
     <t>412627</t>
   </si>
   <si>
-    <t>Rod Blum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blum. Thank you, Chairman Price.    And thank you to our distinguished panel of economists. As I sit today looking at you all, I am reminded of Harry Truman's famous line of asking to be sent a one-armed economist, because he grew tired of economists saying, ``On the other hand.'' So I have not heard that much today, so much to your credit.    Dr. Cochrane, the grumpy economist, I guess, to be called, people have said that politics has become a joyless profession. I didn't know economics was the same.    Our economy, as someone said in their opening remarks, is growing at 50 percent of the post-World War II average--50 percent. What do you think is holding back the economy?</t>
   </si>
   <si>
@@ -478,9 +442,6 @@
     <t>400607</t>
   </si>
   <si>
-    <t>Mark Sanford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sanford. Thank you, Mr. Chairman.    And I know the focus of this hearing is on economic growth, but economic growth doesn't wake people up. I want to go back to a degree what my colleague Mr. Blum was getting at, Mr. Johnson was getting at, which is people sort of lull themselves to sleep. I believe we are walking our way into a debt crisis. We are sleepwalking our way in that direction.    And so I want to, again, bore down just as to where he was, into not just marginal difference in economic growth, but if you have a debt crisis, what happens to the economy overall, what happens to people's savings, what happens to the worth of the currency? We may not be able to predict interest rates, to your point, but, I mean, frankly, what happens to our political infrastructure?    I would like to hear from each one of you, do you know of an instance wherein there has been a soft landing, or a benign deleveraging, if you want to call it that, in the wake of a debt spiral and debt spike?</t>
   </si>
   <si>
@@ -527,9 +488,6 @@
   </si>
   <si>
     <t>412605</t>
-  </si>
-  <si>
-    <t>Dave Brat</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, Mr. Chairman. I have to go testify on health savings accounts, but I just wanted to ask one quick question, and it will be suggestive, and then I have got to run out.    But a lot of times up here we talk economic growth, and then you get the usual pattern of political responses tied to government programs that already exist instead of going back to first principles and what causes economic growth in the first place, and then asking yourself, are you in the ballpark on those fundamentals or are we just making up kind of new clever things that are trendy politically and trying to hit those in the short run.    So we mentioned R&amp;D, NIH funding, preschool initiatives, infrastructure. So those are examples of the in-vogue kind of things, right? Obama has been doing infrastructure for 7 years and the economy has grown at 1 percent the last couple quarters. So I am unconvinced.    Sand in the gears, I think we are all agreed on that. The regs are huge, and how we overcome that is tremendously large.    So I just want to ask you, if you go back to economic theory from scratch, give me just your top three causes of economic growth, the three variables on the right-hand side of an equation, in order, right, starting with number one, the number one proximate cause of economic growth, number two, number three. If they are cultural, if they are capital, if they are traditional economics, I don't care. But just give me your top three, what do you got.    Why don't you start off, Dr. Cochrane?</t>
@@ -1078,11 +1036,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1102,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1130,11 +1084,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1156,11 +1108,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1180,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1208,11 +1156,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1232,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1260,11 +1204,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1284,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1312,11 +1252,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1336,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1362,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1388,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1414,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1440,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1466,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1492,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1518,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1544,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1570,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1596,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1622,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1648,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1674,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1702,11 +1612,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1726,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1752,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1780,11 +1684,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1804,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1832,11 +1732,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1856,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1882,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1908,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1934,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1962,11 +1852,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1986,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2014,11 +1900,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2038,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2064,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2090,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2116,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2142,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2168,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2194,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2220,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2246,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2272,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2298,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2324,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2350,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2376,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2402,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2428,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2454,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2480,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2506,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2532,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2560,11 +2404,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2584,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2610,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2636,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2662,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2688,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2714,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2740,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2766,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>82</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2792,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2818,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2844,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2870,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2896,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2922,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2948,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2974,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3000,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3028,11 +2836,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3052,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s">
-        <v>83</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3080,11 +2884,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3104,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3130,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3156,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3182,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3208,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3234,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3260,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3286,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3314,11 +3100,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3338,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3366,11 +3148,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3390,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
-      </c>
-      <c r="G91" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3416,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3442,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3468,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3494,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3520,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3546,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3572,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3598,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3624,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3652,11 +3412,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3676,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s">
+        <v>106</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
         <v>117</v>
-      </c>
-      <c r="H102" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3704,11 +3460,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3728,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>130</v>
-      </c>
-      <c r="G104" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3754,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3780,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G106" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3806,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3832,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>130</v>
-      </c>
-      <c r="G108" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3858,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3884,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>130</v>
-      </c>
-      <c r="G110" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3910,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3936,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
-      </c>
-      <c r="G112" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3962,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3988,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
-      </c>
-      <c r="G114" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4014,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4040,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>130</v>
-      </c>
-      <c r="G116" t="s">
-        <v>131</v>
-      </c>
-      <c r="H116" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4066,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4092,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
-      </c>
-      <c r="G118" t="s">
+        <v>119</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>131</v>
-      </c>
-      <c r="H118" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4118,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4144,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4170,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4196,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
-      </c>
-      <c r="G122" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4222,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4248,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>130</v>
-      </c>
-      <c r="G124" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4274,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4300,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>130</v>
-      </c>
-      <c r="G126" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4326,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4354,11 +4060,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4378,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
-      </c>
-      <c r="G129" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4406,11 +4108,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4430,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>153</v>
-      </c>
-      <c r="G131" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4456,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4482,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
-      </c>
-      <c r="G133" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4508,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4534,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4560,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4586,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>153</v>
-      </c>
-      <c r="G137" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4612,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4638,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>153</v>
-      </c>
-      <c r="G139" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4664,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4690,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>153</v>
-      </c>
-      <c r="G141" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4716,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4742,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>153</v>
-      </c>
-      <c r="G143" t="s">
+        <v>141</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>154</v>
-      </c>
-      <c r="H143" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4768,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4796,11 +4468,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4820,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>170</v>
-      </c>
-      <c r="G146" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4846,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4872,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>170</v>
-      </c>
-      <c r="G148" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4898,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4924,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>170</v>
-      </c>
-      <c r="G150" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4950,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4976,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>170</v>
-      </c>
-      <c r="G152" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5002,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5028,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>170</v>
-      </c>
-      <c r="G154" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5054,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5080,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>170</v>
-      </c>
-      <c r="G156" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5106,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5132,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
+        <v>157</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
         <v>170</v>
-      </c>
-      <c r="G158" t="s">
-        <v>171</v>
-      </c>
-      <c r="H158" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5158,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5184,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G160" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5210,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5236,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>170</v>
-      </c>
-      <c r="G162" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5264,11 +4900,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5288,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5314,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5340,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5366,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>170</v>
-      </c>
-      <c r="G167" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5394,11 +5020,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5418,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5446,11 +5068,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5472,11 +5092,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5496,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5522,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5550,11 +5164,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5574,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5602,11 +5212,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5626,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5654,11 +5260,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5678,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5706,11 +5308,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5730,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5758,11 +5356,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5782,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5810,11 +5404,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5834,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5862,11 +5452,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5886,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5914,11 +5500,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5938,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5966,11 +5548,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5990,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6018,11 +5596,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6042,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6070,11 +5644,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6096,11 +5668,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22604.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400626</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Price. The hearing will come to order.    We want to welcome everybody to the Budget Committee and our hearing this morning on growing risks to the budget and the economy. We have got a lot of folks here.    And I especially want to welcome a delegation from the country of Sri Lanka. We welcome you to our budget hearing today. Thanks for joining us. Maybe you can teach us a few things about getting a budget on track.    This morning's hearing is entitled ``Growing Risks to the Budget and the Economy.'' Regardless of one's political posture, there are clearly some warning signs before us. In many ways, the current budget and the current economy are, in fact, risks that are intimately related to each other. The Congressional Budget Office itself provides all of us with some sobering information, demonstrating that policymakers have ample evidence and information revealing just how severe the risks are and how much riskier they will become in the not-too-distant future.    Today, the Nation's total debt tops $19 trillion. At the end of the 10-year budget window, over the next decade, CBO projects we will borrow another $8.6 trillion, accumulating a total level of publicly held debt equivalent to more than 85 percent of our economy. That is twice the average level of the past century. It is the highest our Nation has had since the end of World War II.    And, of course, unlike the 1940s, today's debt is not being driven by a massive temporary mobilization of military might. In 2016, our debt trajectory is being driven by a chronic imbalance in our Nation's budget for which there is no end in sight under current policy or current law.    In fact, today's growing debt is not so much the result of defeating a threat to America's national security--it is, indeed, the threat itself. The fiscal imbalance that we face, the uncertainty that is sown into our economy by a looming fiscal crisis, all of this weakens our Nation.    And, yet, despite all of this, there are many who are saying that just because interest rates are so low, that we just ought to keep borrowing more and more money--run up the credit card while credit is relatively cheap. This is, as most folks understand and appreciate, horribly shortsighted thinking.    Publicly held debt is over $14 trillion, more than three-quarters the size of our economy. We are already past what economists say is a sustainable debt burden, let alone advisable or fair to leave our kids and our grandkids.    The fastest-growing component in our budget is not national security spending; it is not health care; it is not research and development; it is not infrastructure to repair roads or bridges; it is not aid to the Nation's poor; it is interest on our Nation's debt. Unless something is done to change course, in 2026 America will pay $712 billion a year in interest payments alone, just shy of what we are projected to spend on our entire national defense.    And interest payments, interest dollars, are dollars that can't be used to pay the rent or to send a kid to school or to buy a car or to buy a house or to start or to expand a business. All the things that the American people say they want to do with their money will be harmed by the enormous interest payments.    Annual deficits are projected to exceed $1 trillion in that same time period. These deficits will come at a time when Washington will be taking in higher-than-average tax revenue. This means that we will be taking in more tax money and going further in the hole, further into debt. Clearly, the government is not being starved of revenue.    That being said, a stronger economy that creates higher revenues is truly the key to addressing our fiscal crisis. If our economy were growing today at just the historical average, roughly 3 percent annually, instead of 2 percent that is projected over the next decade, we would be in a much better fiscal position than we are right now.    According to the Congressional Budget Office, if economic growth were just 0.1 percentage points higher per year than currently projected, annual deficits over the next 10 years would be reduced by $327 billion. Just through better economic output, we could reduce future deficits by as much as $3.3 trillion over the next decade if we were growing at our historical average.    In short, economic growth is a vital ingredient to any coherent strategy to get the Nation's fiscal house in order. Poor economic policies contribute to the poor fiscal health of the Nation, and today we are experiencing the worst economic recovery of the modern era.    The macro effects of slow economic growth, however, are only one side of the story. The uncertainty that the country as a whole has experienced, due in part to lackluster economic growth, is also experienced by millions of individual Americans--families, entrepreneurs--in their own lives and in their own ways. Many Americans are struggling to make ends meet at a time when opportunities are fewer and the cost of basic necessities like health care and education are rising.    And while the headline unemployment rate has dropped to under 5 percent, the underemployment rate, that which takes into account those who are working part-time because they can't find full-time work and those who have just given up looking for work, is currently 9.7 percent. That is higher than where it was prior to the recession.    Meanwhile, the rate of participation in America's labor market, the percent of the population who are able to work who are working, is at levels not seen since the late 1970s, and the rate of worker productivity has declined for the last three quarters.    At a time when over 60 percent of the country believes the Nation is on the wrong track, it is time we adopted a pro-growth policy agenda. And when that is coupled with sound budgetary strategy, it will jump-start America's economic engine and put us on a sustainable fiscal trajectory.    House Republicans, led in part by this committee's efforts on fiscal and economic matters, have been championing bold solutions to achieve those goals.    And to further this discussion, we are joined today by Dr. John Cochrane, a senior fellow at the Hoover Institution; Dr. Jared Bernstein, who is a senior fellow at the Center on Budget and Policy Priorities; and Dr. Doug Holtz-Eakin, who is president of the American Action Forum.    I want to thank each and every one of you for taking part in today's hearing.    And I am pleased now to yield to the current temporary ranking member of the day, Mr. Ryan from Ohio.</t>
   </si>
   <si>
     <t>400352</t>
   </si>
   <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ryan. Thank you, Mr. Chairman. I would like to thank our witnesses for being here. Please excuse my voice. I got a little cold from my 2-year-old son after his first week at school. Germ factory. We need a hearing on that, I think, Mr. Chairman.    There are few tasks more fundamental to the function of this Committee than to discuss the budget and economic outlook, and I think this is really one of the few committees that is still having very, very serious discussions about the future of the country. In this charged political climate, it is hard to get a rational discussion in many quarters these days. So I hope today's panel will shed some light for us on approaches Congress should consider to improve the lives of Americans going forward.    We have all known for some time that we are facing a daunting fiscal future. Baby boomers are reaching retirement age, and our retirees, current retirees, are living longer. So this demographic shift drives the increases in the cost of health care, retirement programs, and budget deficits projected by CBO over the next 10 years and beyond.    Similarly, CBO's projected slowdown in economic growth is driven by slower-than-past growth in the labor force and productivity. Again, we have seen these trends coming for decades.    These are major concerns that deserve our attention. We must get the economy moving so our hard-working Americans can enjoy a rising standard of living. And we must adjust our fiscal policies to lessen future budget deficits, which are unsustainable without responsible action. So I am glad we are all in agreement here, as Democrats and Republicans, that this is a major issue that we need to address.    Now, Congress has the fiscal policy tools, I believe, that we need to act. And we did it at the start of the recession. President Obama inherited the weakest economy since the Great Depression, and, together, we acted swiftly to turn things around.    Within 6 months, the economy began to grow again. We are now in the fourth-longest economic expansion in American history. We have added 15 million private sector jobs and cut the unemployment rate in half. Economists have estimated that without the aggressive policy response implemented by the President and Congress and the Federal Reserve, the recession would have lasted more than 3 years, cost twice as many jobs, and pushed the unemployment rate to 16 percent rather than the 10 percent we actually saw.    Had we not employed the fiscal policy tools in our toolkit, we would have a weaker economy and larger deficits today.    So if we look at the economic situation in Europe, which our panelists know all too much about, Europe responded to the economic crisis with austerity, and this approach undermined their recovery, the deep cuts. And, unfortunately, Congress has also undermined our economy over the past 6 years by blocking additional proposals by President Obama and insisting on spending cuts, the kind of austerity measures that have failed elsewhere. President Obama's jobs bill still languishes here in Congress.    Democrats have a different approach. We want to enact forward-looking policies that will strengthen the main drivers of our strong economy. We want sustained investment. And while we have to make tough choices to deal with the deficit and the debt, we must remain committed to responsibly funding our national priorities, because these priorities lead to the growth that the chairman was talking about.    We must promote long-term job growth by modernizing transportation networks--that takes investment; repairing aging infrastructure--that takes investment; investing in workforce education--that takes investment; and supporting the research and development of advanced manufacturing technologies which will lead to the next generation of good-paying jobs in America.    This will create the millions of jobs, this will grow our economy, facilitate American exports, create a level playing field for American workers, and increase the return on taxpayer investment.    By contrast, our Republican colleagues continue to push an agenda that returns to the same failed policies that created and prolonged the recession: deregulation, new tax breaks for the wealthy, and austere spending cuts. And under President Bush, we actually lost private sector jobs. Under President George W. Bush, who fully implemented the supply-side economic theory, we lost private sector jobs.    These tactics do little to expand the workforce or improve productivity. I think we can all agree that a stronger economy is the single most important factor that would improve the budget and fiscal outlook, even if we differ on the best approach to stimulate growth across the economy.    Democrats are eager to discuss this, Mr. Chairman, and any additional efforts to reduce future deficits, but we need a willing partner, not a party that seeks to disinvest in America's future and threaten our vital society and our social safety net without regard to the damaging impact of austerity on our economy and its recovery.</t>
   </si>
   <si>
@@ -70,18 +85,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Cochrane</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cochrane. Chairman Price and Mr. Ryan and members of the Committee, it is a real honor to talk to you today.    Yes, sclerotic growth is our country's most fundamental economic problem. If we could get back to the 3.5 percent postwar average, we would, in the next 30 years, triple rather than just double the size of the economy, and also tax revenues, which would do wonders for our debt problems.    So why has growth halved? The most plausible answer is, I think, simple and sensible: Our legal and regulatory system is slowly strangling the golden goose of growth.    How do we fix it? Harder. Our national economic debate just makes the same points louder, over and over again, and is going nowhere. So let's look together to find novel and effective policies that can appeal to both sides of the argument.    Let's get past too much regulation or too little regulation and fix regulation instead. Regulation is too discretionary. People can't read the rules and know what to do. Regulatory decisions take forever. Regulation has lost its rule of law protections. Agencies are cop, prosecutor, judge, jury, and executioner all in one. And most of all, regulation is becoming more politicized.    Congress can fix this. Let's get past spending more or spending less on social programs and fix the programs instead.    Often, if people earn an extra dollar, they lose more than a dollar of benefits. No wonder people get stuck. If we fix these disincentives, we will help people better, we will encourage growth and economy, and, in the end, we will spend less.    Now, spending is a serious problem, but just moving spending off the books doesn't help. For example, we allow a mortgage interest tax deduction, but that is exactly the same thing as collecting taxes and then sending checks to homeowners, but larger checks for high-income people, larger checks for people who borrow a lot, and larger checks for people who refinance often. You would never do that.    Suppose we eliminate the mortgage deduction and put housing subsidies on budget instead. The resulting homeowner subsidy would surely be a lot smaller, help lower-income people a lot more, and would be better targeted at getting people in houses. You would both be happy. The budget would look bigger, but in reality, we would be spending less and growing more.    Taxes. Tax reform fails because arguments over the level of taxes, subsidies, or redistribution torpedo sensible simplifications we all know we should do. We could achieve tax reform, then, by separating the four confounding issues.    First, determine the structure of taxes, just to raise revenue with minimal economic damage, but leave the rates blank, then separately negotiate the rates, put all the tax incentives and deductions in a separate subsidy code, and preferably as visible on-budget expenditures, and then separately add an income redistribution code.    If you did these four things separately, the necessary big fights over each one need not derail progress on the others.    I should say, a massive simplification of the Tax Code is, I think, more important than the rates and easier for us all to agree on.    Debt and deficits. Each year, the CBO correctly declares our long-term debt unsustainable and not much happens. Yelling louder won't work.    So let's, first, face the biggest problem, a debt crisis, when the U.S. really needs to borrow trillions of dollars and suddenly can't; a debt crisis, not a predictable rise in interest rates or something we can see coming. Crises are always sudden and unexpected, like earthquakes and wars. Even Greece could borrow at remarkably low interest rates--until, one day, all of a sudden it couldn't.    The answers are straightforward. Sensible reforms to Social Security and Medicare are on the table. Address underfunded pensions, huge credit and bailout guarantees, and other things that might force the U.S. to need a lot of money suddenly.    Buy some insurance. Every homeowner shopping for a mortgage chooses between a floating rate, lower initially, and a fixed rate, higher initially, but forever stopping the chance of interest rates going up and blowing their budget.    The same for the U.S. Fixed rates, borrowing longer, would forever insulate the budget from interest rate risks, and those are the essential ingredients of a debt crisis.    Above all, undertake simple pro-growth economic policies and grow out of the debt.    You may object that fundamental reform of this sort is not politically feasible. Well, what is politically feasible changes fast these days. Winston Churchill once said, Americans can be trusted to do the right thing after we have tried everything else. Well, we have tried everything else, so let's do the right thing.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Price. Thank you, Dr. Cochrane.    Dr. Bernstein, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bernstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bernstein. Thanks very much, Chairman Price, and thank you, Mr. Ryan, for the invitation to speak to you today.    My testimony makes three simple points. First, as recent labor market, income, poverty, and health coverage data reveal, the American economy actually has significant strengths. The U.S. economy is in the seventh year of a recovery that began in the second half of 2009, meaning that we are in the midst of a relatively long expansion. Businesses began adding jobs on net in late 2010, and since then, private sector employment is up 15 million jobs, the longest streak of total job growth on record.    The tightening job market has meant faster wage growth, and not just for high-wage workers, but for middle- and low-wage workers as well. As my first figure shows, the real wage of blue collar workers in manufacturing and for non-managers and services is up 5 percent since its trough in late 2012.    My second figure uses data from the New York Federal Reserve to show another favorable shift in the recent job market: Middle-skill job growth is now outpacing that of job growth in low- and high-wage occupations.    Now, these labor market trends helped to generate remarkably positive real income gains last year as reported just yesterday by the Census Bureau. My figure 3 shows these real gains were largest at the low end of the income scale, a characteristic pattern of tightening labor markets as they disproportionately lift the incomes of the least advantaged.    I should note that contrary to some of the very negative comments that have been made so far today, the 5.2 percent increase you see in this figure is the fastest 1-year growth in real median household income on record in the Census Bureau series, which dates from the mid-1970s.    Poverty also fell significantly last year, though the poverty rate, at 13.5 percent, is still above its 2007 level.    Figure 4 shows the dramatic decline in the share of Americans without health coverage that began with the implementation of the Affordable Care Act. These very positive developments for middle- and low-income households derive from the one-two punch of tighter labor markets and progressive healthcare policy.    My second point, however, is that trend productivity growth is too slow, and that suggests the need for an investment agenda. Though the U.S. economy is growing faster than most other advanced economies, real GDP growth has been slower in this recovery than in prior ones. An important reason for this outcome is that productivity growth has also slowed. And one reason that productivity growth has slowed is due to less capital deepening, as in not enough investment in capital per hour worked.    Now, recent Congresses, including the current one, have been extremely reluctant to plan and execute public investment in needed areas, including basic research, water quality, human capital, including preschool, and transportation infrastructure.    This is a bipartisan complaint, one I hear regularly from the business community that depends on productivity-enhancing infrastructure.    My final point is that while we face serious fiscal constraints, lower interest rates and slower-growing healthcare costs, even as many more people have health coverage, are providing desperately needed fiscal oxygen. Together, these two factors explain five-sixth of the improvement in the long-term forecast of the debt ratio.    My last figure underscores the health savings point. It shows a 4 percentage point decline in projections for public health spending as a share of GDP between the 2010 projections and the most recent ones, savings that are partly attributable to healthcare delivery efficiencies promoted by the Affordable Care Act.    Given the investment agenda I recommend, I want to express my concern regarding sequestration cuts to nondefense discretionary programs, including education, job training, infrastructure, scientific and medical research, veterans health care, and more. Such funding is projected to fall to historical lows as a share of the economy in coming years.    Similarly, the budget of the House majority features particularly severe cuts in programs to help poor families and others of limited means. Sixty-two percent of its spending cuts come from programs that serve low- and moderate-income families, including Medicaid, nutritional support, and Pell Grants.    Such budgeting would not only lead tens of millions of people to lose health coverage and basic food support, but it would also undermine the positive public investment agenda we very much need.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Price. Thank you, Dr. Bernstein.    Dr. Holtz-Eakin, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Holtz-Eakin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Holtz-Eakin. Thank you Chairman Price, Ranking Member Ryan, and members. It is a privilege to be here today. My written statement makes three points at length. I will make them quickly and then look forward to your questions.    Point number one is that the U.S. can and must do better on both the Federal fiscal outlook and the economic growth outlook, and they are intimately related.    Point number two is that one part of doing better is to change the kind of policy mix away from temporary targeting measures associated with stimulus to long-term structural changes to help the economy grow at a faster trend rate growth.    And then number three is a list of key structural reforms that I think are important for the Congress to consider.    Let me talk about each in turn.    On the growth and budget challenges, there are many ways to characterize this. You have heard some already. I think on the growth front, the key fact is that from the end of World War II to 2007, the U.S. economy grew fast enough on average, about 3.2 percent, that even with population growth, total GDP per person, a rough measure of the standard of living, would double on average every 35 years.    And so in one person's working career, you can imagine the standard of living doubling, and that would be the route to whatever your version of the American dream might be--sending a child to school, to college for the first time, or a vacation home, whatever.    At current projected rates of growth, 2 percent, combined with projections of population growth, that measure of the standard of living would double roughly every 70 to 75 years. And so the pace at which we achieve the American dream has cut down dramatically and is disappearing over the horizon. I think this is the preeminent policy challenge of our time.    It is closely related, of course, to the budget challenge, because, as the chairman pointed out, every tenth of a percentage point of faster growth translates into about $300 billion in budgetary improvement over the 10-year budget window.    And we have a dire fiscal outlook, one in which, the CBO correctly points out again and again, the debt levels are rising at unsustainable rates, one where, over the next 10 years, we are going to have the deficit rise to be $1.2 trillion in 2026, where interest will be $700 billion, over half of that deficit, where the debt-to-GDP ratio is going to continue to climb and be 80 percent.    All of these things are quite troubling and something that the Congress should take on. And in doing so, they will have to do some structural reforms, and those reforms will have to start with the entitlement programs.    There are really three reasons to worry about the entitlement programs. The first is genuinely the budget outlook. These are programs that are growing at, say, Social Security 6 percent, or Medicare a little under 6 percent, 5.9 percent, when the nominal economy is going to grow at something like 4 percent. So they are growing faster than resources can permit to support them. But that is the green eye shades argument, and it will, I promise you, having made it my entire career, resonate not one bit with anyone.    So the second reason to fix them is that these programs on their merits are not good programs. Our Social Security program is kept solvent on the books, and the trustees are permitted to issue reports, because we have promised to cut benefits 25 percent across the board when the trust fund exhausts in a little under two decades. That is a horrific way to run a pension program.    And so if you go through Social Security, Medicare, Medicaid, the Affordable Care Act, the large drivers of the spending increase that is our deficit problem, those programs all could be improved, they are not delivering at sensible costs the services that we have promised.    And the third reason is that the explosion in entitlement spending and the associated rise in debt invites economic problems.    If you are an investor looking at the United States and you see a fundamental mismatch between spending growth and revenues, you know one of three things is going to happen.    One, the U.S. could do nothing, there will be a predictable fiscal crisis, and that is not a pro-growth policy.    Number two, you could try, as that crisis approaches, to close that gap quickly by raising a trillion dollars in taxes each year, and that is hardly a pro-growth policy.    Or three, you can take on the spending challenge that is the entitlement programs, and that would be a way to, in a pro-growth fashion, address the fiscal challenge and invite investment and expansion in the United States.    So this is something that is central to our success. It is also the way to free up the resources for national security, basic research, infrastructure, education, all of the things the Founders saw as the basic role of the Government of the United States. Those are being squeezed out of the budget as we speak.    So I think that is where it starts, and it goes through a list of tax reforms, regulatory reforms, education reforms, trade agreements, immigration reforms, all of which could allow the economy to perform much better and which should be on the agenda for the Congress.    So I look forward to your questions. I would be happy to elaborate on any of those.</t>
   </si>
   <si>
@@ -91,6 +115,12 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the gentlemen for their testimony. Good morning.    Dr. Holtz-Eakin, starting with you. Picking up where you left off, it seems like you have the right recipe there. Let's reform these programs. Let's get spending under control. Let's drive the debt down. Let's continue pro-growth policies of getting regulations under control, as Dr. Cochrane mentioned, and reforming our Tax Code, et cetera, et cetera.    Mr. Ryan, my good friend, the ranking member today, complained, though, that Europe committed the crime of austerity. How is what you are saying different from austerity?</t>
   </si>
   <si>
@@ -139,6 +169,12 @@
     <t>400309</t>
   </si>
   <si>
+    <t>Pascrell</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pascrell. Thank you, Mr. Chairman.    Mr. Chairman, you have really assembled three great testimonies today. We have three great economists. I trust each one of them. I may not agree with them, but that is immaterial. I say that with a full heart.    So Mr. Bernstein referred to the U.S. Census report yesterday. I think that is important, significant stuff, because, Mr. Chairman, if we are ever going to come to a resolution of any of these problems, we have to look at the pluses and minuses. Sometimes I listen to you folks on the other side of the aisle, and then we are ready to throw in the towel. And I know you are not a throw-in-the-towel guy. But in order for us to get resolution, we have to come to an agreement, we have to come to a resolution. Would you agree? Very good.    So I reject the doom and gloom. There is no denying America is getting stronger economically. The budget projections reflect that as we see more revenue from individual taxes, as working Americans make more money.    But what you don't see going up are revenues from anywhere else. They are flat and they are declining. Corporate income tax revenues in 1952 accounted for 33 percent of all revenue. In 1986, it was down to 23 percent, Mr. Chairman. Today, it is 11 percent.    Now, that is a, to me--I will stand corrected--a huge shift on where we get our revenue in order to run the government. Despite U.S.-based corporations seeing record profits, they are contributing very little to the Federal revenue, when you look at those numbers. I didn't make them up.    Tax reform in 1986 also made it more appealing for our businesses to structure themselves as pass-through companies. You have written, you have talked about this, I know, a few of you on the panel. You pay lower than individual tax rates.    [Chart]</t>
   </si>
   <si>
@@ -157,6 +193,12 @@
     <t>412462</t>
   </si>
   <si>
+    <t>Renacci</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Renacci. Thank you, Mr. Chairman, and thank you for holding this important hearing to remind us of the consequences of an unsustainable fiscal path.    As the father of three, I believe that we are responsible to leave our children and grandchildren with a country that is financially stronger than the country we inherited. Unfortunately, though, Washington too often chooses to kick the can down the road and not address the challenges we face.    Absent serious reforms, these challenges aren't going away. However, I am very concerned that many here in Congress still don't understand the seriousness of this problem.    Dr. Cochrane, your testimony discussed the dangers of this mindset. You said: ``Debt crises, like all other crises that really threaten an economy and society, do not come with decades of warning. Do not expect slowly rising interest rates to canary the coal mine. Even Greece could borrow at remarkably low rates. Until, one day, it couldn't, with catastrophic results.    ``The fear for the U.S. is similar. We will have long years of low rates. Until, some day, it is discovered that some books are cooked and somebody owes a lot of money that they can't pay back, and people start to question debts everywhere.''    Mr. Cochrane, you also stated: ``Debt crises are like earthquakes. It is always quiet. People laugh at you for worrying. Buying insurance seems a waste of money. Until it isn't.''    I agree that we need to tackle problems now before the debt earthquake hits. But before tackling the problem, Members of Congress must really start fully understanding it.    That is one of the reasons why I introduced a piece of legislation, a Bipartisan Working Group, entitled the Fiscal State of the Nation, to provide Members of Congress and the American people an annual update on the long-term financial health of the country. Our Nation's finances are one of the most important pieces of information that lawmakers should consider when setting policy agendas for each Congress, but too often I believe that many here in Washington are willfully blind to the subject.    I was a businessman for 28 years. I can tell you that every year, along with every month, I looked at balance sheets and income statements to determine what policies we were going to move forward with, and those became one of the most important reasons that we made decisions we make. We don't do enough of that.    The Fiscal State of the Nation resolution is simple. It just requires the Comptroller General of the United States to present the financial report of the United States to a joint session of Congress on an annual basis. It allows lawmakers and the American public to receive the information in an accurate and timely manner within 45 days of when our country's audited financial statements are issued. Many members on the panel are already cosponsors.    Dr. Cochrane, you note in your testimony that every year the Congressional Budget Office declares our long-term promises are unsustainable. I hear it all the time as well. Yet, Congress continues to just kick the can down the road.    Do you agree that a Fiscal State of the Nation would better help all Members of Congress to understand the pressing financial issues facing our country?</t>
   </si>
   <si>
@@ -241,6 +283,9 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    And thank you, gentlemen, for joining us today.    I share the concerns that have been expressed by other of my colleagues. You know, I can remember as far back as 2010 or 2011 when then Chairman of the Joint Chiefs of Staff Admiral Mullen said that the greatest threat to our national security is our national debt. In spite of that, it continues to go in a vertical direction at an alarming rate.    Publicly held debt is projected to rise from an already elevated 76 percent this year to more than 85 percent by 2026, twice the average level of the past 50 years, which was 39 percent. CBO's long-term projections show that level will jump to 141 percent in 2046 under current law, and that would be the highest debt burden in our Nation's history.    So, Dr. Cochrane and Dr. Holtz-Eakin, is this fiscal path sustainable?</t>
   </si>
   <si>
@@ -301,6 +346,12 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. I will give you a general question. And we actually had a panel on a similar topic on Joint Economic recently.    Part of our problem is that income growth is not as rapid as it should be. And I would like you guys to comment on the degree to which that is caused by us currently discouraging work. I got home a couple weekends ago, ran into a CPA, telling me about all the people who were intentionally working less to get their ObamaCare subsidy. And, clearly, the ObamaCare subsidy was designed to encourage people not to work very hard.    The same is true about the wide variety of what you call welfare programs, earned income credit, clearly designed to discourage people from working hard, food share, low income, everything.    I would like you guys to comment on that and the degree to which the slow growth of our economy and, as a result, lower growth in revenues than anticipated, is caused by this seeming policy of the Federal Government today to discourage work.</t>
   </si>
   <si>
@@ -337,6 +388,12 @@
     <t>412416</t>
   </si>
   <si>
+    <t>Woodall</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Woodall. Thank you, Mr. Chairman, and thank you for calling the hearing. I knew it was going to be a good one when Mr. Pascrell rejected doom and gloom right from the outset.    I have not been disappointed. There has been a lot of head nodding going on up there. And candidly, I was feeling a little bad about us as an institution, because I thought, golly, if these guys can all get along on these topics, why can't we? And then you all start arguing about data points in the census report. And I think that is right, that we spend so much time around here arguing about data points too.    But the truth is folks didn't disagree with Dr. Holtz-Eakin's point on transportation. Yes, we don't need to improve his commute through the suburbs, we need to improve the 2 of the top 10 most congested freight byways in the country, which run through metro Atlanta, and that is going to have a real productivity increase. And we agree, let's do double National Institutes of Health.    For Pete's sake, you call yourself the grumpy economist, Dr. Cochrane, but every time the agreement comes up, I see a big smile come across the face, that there is opportunity there. Newt Gingrich and Bill Clinton did it. We can do it too.    Tell me this, Dr. Cochrane. When I was with the Bureau of Public Debt, they said, we are going to push out maturity as far as we can. I know we are at record highs now north of 70 months. But they say, we can't push it out too far, because liquidity is going to become a problem if we do. Do you have any concerns about us pushing it out too far too fast?</t>
   </si>
   <si>
@@ -376,6 +433,12 @@
     <t>412627</t>
   </si>
   <si>
+    <t>Blum</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Blum. Thank you, Chairman Price.    And thank you to our distinguished panel of economists. As I sit today looking at you all, I am reminded of Harry Truman's famous line of asking to be sent a one-armed economist, because he grew tired of economists saying, ``On the other hand.'' So I have not heard that much today, so much to your credit.    Dr. Cochrane, the grumpy economist, I guess, to be called, people have said that politics has become a joyless profession. I didn't know economics was the same.    Our economy, as someone said in their opening remarks, is growing at 50 percent of the post-World War II average--50 percent. What do you think is holding back the economy?</t>
   </si>
   <si>
@@ -442,6 +505,12 @@
     <t>400607</t>
   </si>
   <si>
+    <t>Sanford</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sanford. Thank you, Mr. Chairman.    And I know the focus of this hearing is on economic growth, but economic growth doesn't wake people up. I want to go back to a degree what my colleague Mr. Blum was getting at, Mr. Johnson was getting at, which is people sort of lull themselves to sleep. I believe we are walking our way into a debt crisis. We are sleepwalking our way in that direction.    And so I want to, again, bore down just as to where he was, into not just marginal difference in economic growth, but if you have a debt crisis, what happens to the economy overall, what happens to people's savings, what happens to the worth of the currency? We may not be able to predict interest rates, to your point, but, I mean, frankly, what happens to our political infrastructure?    I would like to hear from each one of you, do you know of an instance wherein there has been a soft landing, or a benign deleveraging, if you want to call it that, in the wake of a debt spiral and debt spike?</t>
   </si>
   <si>
@@ -488,6 +557,12 @@
   </si>
   <si>
     <t>412605</t>
+  </si>
+  <si>
+    <t>Brat</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, Mr. Chairman. I have to go testify on health savings accounts, but I just wanted to ask one quick question, and it will be suggestive, and then I have got to run out.    But a lot of times up here we talk economic growth, and then you get the usual pattern of political responses tied to government programs that already exist instead of going back to first principles and what causes economic growth in the first place, and then asking yourself, are you in the ballpark on those fundamentals or are we just making up kind of new clever things that are trendy politically and trying to hit those in the short run.    So we mentioned R&amp;D, NIH funding, preschool initiatives, infrastructure. So those are examples of the in-vogue kind of things, right? Obama has been doing infrastructure for 7 years and the economy has grown at 1 percent the last couple quarters. So I am unconvinced.    Sand in the gears, I think we are all agreed on that. The regs are huge, and how we overcome that is tremendously large.    So I just want to ask you, if you go back to economic theory from scratch, give me just your top three causes of economic growth, the three variables on the right-hand side of an equation, in order, right, starting with number one, the number one proximate cause of economic growth, number two, number three. If they are cultural, if they are capital, if they are traditional economics, I don't care. But just give me your top three, what do you got.    Why don't you start off, Dr. Cochrane?</t>
@@ -986,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1069,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,4661 +1091,5468 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>89</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>89</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>89</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G86" t="s">
+        <v>110</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G91" t="s">
+        <v>124</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G93" t="s">
+        <v>124</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G95" t="s">
+        <v>124</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G97" t="s">
+        <v>124</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G99" t="s">
+        <v>124</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>106</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G102" t="s">
+        <v>124</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G104" t="s">
+        <v>139</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G106" t="s">
+        <v>139</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G108" t="s">
+        <v>139</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>139</v>
+      </c>
       <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G112" t="s">
+        <v>139</v>
+      </c>
       <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G114" t="s">
+        <v>139</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G116" t="s">
+        <v>139</v>
+      </c>
       <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>119</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G118" t="s">
+        <v>139</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>119</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G120" t="s">
+        <v>139</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>119</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G122" t="s">
+        <v>139</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>119</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G124" t="s">
+        <v>139</v>
+      </c>
       <c r="H124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I124" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>119</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G126" t="s">
+        <v>139</v>
+      </c>
       <c r="H126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>119</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G129" t="s">
+        <v>139</v>
+      </c>
       <c r="H129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G131" t="s">
+        <v>163</v>
+      </c>
       <c r="H131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G133" t="s">
+        <v>163</v>
+      </c>
       <c r="H133" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G135" t="s">
+        <v>163</v>
+      </c>
       <c r="H135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>141</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G137" t="s">
+        <v>163</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G139" t="s">
+        <v>163</v>
+      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>141</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G141" t="s">
+        <v>163</v>
+      </c>
       <c r="H141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>141</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G143" t="s">
+        <v>163</v>
+      </c>
       <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>157</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G146" t="s">
+        <v>181</v>
+      </c>
       <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>157</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G148" t="s">
+        <v>181</v>
+      </c>
       <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>26</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>157</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G150" t="s">
+        <v>181</v>
+      </c>
       <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>157</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G152" t="s">
+        <v>181</v>
+      </c>
       <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>157</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G154" t="s">
+        <v>181</v>
+      </c>
       <c r="H154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>157</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G156" t="s">
+        <v>181</v>
+      </c>
       <c r="H156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>23</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>157</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G158" t="s">
+        <v>181</v>
+      </c>
       <c r="H158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>26</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>157</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G160" t="s">
+        <v>181</v>
+      </c>
       <c r="H160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>157</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G162" t="s">
+        <v>181</v>
+      </c>
       <c r="H162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>157</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G165" t="s">
+        <v>181</v>
+      </c>
       <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>157</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="G167" t="s">
+        <v>181</v>
+      </c>
       <c r="H167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I167" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>23</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>26</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>23</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>26</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>26</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G185" t="s">
+        <v>23</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G187" t="s">
+        <v>23</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G189" t="s">
+        <v>23</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>23</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
       <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I193" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>207</v>
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22604.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400626</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400352</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Ryan</t>
   </si>
   <si>
@@ -113,6 +122,9 @@
   </si>
   <si>
     <t>412426</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Rokita</t>
@@ -1061,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,7 +1081,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,5465 +1106,5884 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G78" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G95" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G97" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G102" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G108" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G110" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G114" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>32</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G116" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>32</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>32</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G120" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>32</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G122" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G126" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G131" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G133" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I133" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G137" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I137" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G139" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>23</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G141" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I141" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G143" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I143" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G146" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I146" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G148" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>26</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G150" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>29</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>32</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G152" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G154" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I154" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G156" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I156" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J156" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>26</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G158" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>26</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>29</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G160" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I160" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G162" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I162" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s">
-        <v>29</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G165" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I165" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" t="s">
-        <v>29</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>32</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G167" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I167" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>29</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>32</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>26</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s">
-        <v>26</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>29</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>29</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>32</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>26</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>29</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>26</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>26</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>29</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>26</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>26</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>23</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>26</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I193" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J193" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I195" t="s">
-        <v>232</v>
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
